--- a/data/output/matched_sample input files.xlsx
+++ b/data/output/matched_sample input files.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="SBS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GTIN" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="GMDN" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,6 +434,858 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Service Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Service Description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SBS Code</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Short Description</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SBS Code Hyphenated</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Confidence</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>446T</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Space Maintainer (Removal)</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>980040011</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Removable space maintainer placement uni</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>98004-00-11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Candidate 1 passes all checks - the Specialty is Dental Services, the Category is Miscellaneous dental services, and the Description matches the input of 'Space Maintainer (Removal)'. The clinical context also aligns, describing a unilateral removable appliance used to maintain a missing tooth space.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>760T</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bone Augmentation Memberane</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>458410000</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Alv ridge aug by bone grft / allogrft</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>45841-00-00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Candidate 17 [SBS] Code: 45841-00-00 passes all checks. The specialty (Procedures on Musculoskeletal System) and category (Repair procedures on maxilla, mandible or temporomandibular joint) match the input. The description of alveolar ridge augmentation using a bone graft or allograft is clinically relevant.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>310T</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RE-RCT</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>974370000</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Surg Rx &amp; rep ext root resorp per tooth</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>97437-00-00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Candidate 2 passes all checks - the Specialty is Dental Services, the Category is Periradicular Surgery which matches the input domain of Surgical, and the Description of 'Surg Rx &amp; rep ext root resorp per tooth' aligns with the input of endodontic reaming/enlargement. No major parameter mismatches were found.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>310T</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>RE-RCT</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>974370000</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Surg Rx &amp; rep ext root resorp per tooth</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>97437-00-00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Candidate 2 passes all checks - the Specialty is Dental Services, the Category is Periradicular Surgery which matches the input domain of Surgical, and the Description of 'Surgical treatment and repair of external root resorption' aligns with the input of 'Endodontic reaming/enlargement'. No major parameter mismatches were found.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>203T</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Surgical Removal of Root Fragment</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>974310000</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Periapical curettage per root</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>97431-00-00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Candidate 1 passes all checks - the Specialty (Dental Services) and Category (Periradicular Surgery) match the input, the service description aligns with 'Surgical Removal of Root Fragment', and there are no mismatches in parameters or qualifiers. The Includes field also indicates this code covers the removal of pathological tissue from the root, which is consistent with the input.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>313T</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R.C.T. (Birooted)</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>974320000</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Apicectomy per root</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>97432-00-00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Candidate 7 passes all checks - the Specialty (Dental Services) and Category (Periradicular Surgery) match the input, the service description aligns with 'Periradicular surgery', and there are no mismatches in parameters or qualifiers. The Excludes field also does not conflict with the input.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>315T</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>R.C.T. (Multirooted)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>974330000</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Exploratory periradicular surgery</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>97433-00-00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Candidate 1 passes all checks - the Specialty is Dental Services, the Category is Periradicular Surgery, and the Description matches the input of a multirooted root canal procedure. There are no conflicting parameters or qualifiers specified.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>309T</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RCT Four Canals</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>974200100</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Root canal treatment anterior</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>97420-01-00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Passes all checks. The input describes a root canal treatment, which matches the 'Pulp treatment' category and 'Root canal treatment anterior' service in the SBS code system. The description also aligns with the input of 'Four Canals'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>311T</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>R.C.T. (Monorooted)</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>974320000</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Apicectomy per root</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>97432-00-00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Passes all checks - the input describes a root canal procedure, which matches the 'Periradicular surgery' category and 'Apicectomy per root' service described by the candidate. The clinical context also aligns.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>521T</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tooth Colored 1 Surface</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>975210100</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Adhesive restor tooth 1 surf direct</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>97521-01-00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Candidate 2 passes all checks - the specialty, category, and clinical context match the input of a direct, tooth-colored, one-surface dental restoration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>522T</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tooth Colored 2 Surface</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>975210200</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Adhesive restoration additional surface direct</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>97521-02-00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Passes all checks. Specialty (Dental Services) and category (Tooth-coloured restoration) match. Numerical parameter (2 surfaces) aligns. Qualifiers (tooth-colored, direct) are compatible.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>523T</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tooth Colored 3 Surface</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>975210200</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Adhesive restoration additional surface direct</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>97521-02-00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Passes all checks. Specialty and category match. The input describes a tooth-colored restoration involving 3 surfaces, which matches the 'additional surface direct' description of Candidate 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>525T</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tooth Colored Build Up With Post</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>975210100</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Adhesive restor tooth 1 surf direct</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>97521-01-00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Candidate 4 passes all checks - the input service of 'Tooth Colored Build Up With Post' matches the SBS category of 'Tooth-coloured restoration' and the specific service of 'Adhesive restoration (e.g. compomer, composite, glass ionomer, polymer glass, resin composite), one surface, direct'. The input does not specify any parameters that would conflict with this code.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>290T</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Alveloplasty (1 Jaw)</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>417860000</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Uvulopalatopharyngoplasty</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>41786-00-00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>LLM response parsing failed; using vector similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>575T</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Porcelaine Laminate</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>975830210</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Attachment veneer to tooth porcelain laminate indirect</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>97583-02-10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Passes all checks - the input 'Porcelain Laminate' matches the SBS code 97583-02-10 for 'Attachment of veneer to tooth surface, porcelain laminate, indirect', which is in the Dental Services specialty and the 'Other restorative dental service' category. There are no mismatches in parameters or qualifiers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>566T</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PFM Crown (Non-Precious)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>976151000</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>Porcelain fused to base metal crown</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>97615-10-00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Candidate 1 passes all checks - the specialty, category, and clinical context all match the input of a porcelain fused to base metal crown. There are no mismatches in parameters or qualifiers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>567T</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PFM Crown &gt; 1 Unit (Non-Precious)</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>976151000</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Porcelain fused to base metal crown</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>97615-10-00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Candidate 1 passes all checks - the specialty, category, and clinical context all match the input. The description of a porcelain fused to base metal crown is a direct match for the 'PFM Crown &gt; 1 Unit (Non-Precious)' input.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>050T</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TMJ X Ray</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>970830040</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>CBVT analysis and/or interpret TMJ only</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>97083-00-40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Candidate 1 passes all checks - the Specialty (DENTAL SERVICES) and Category (Other dental diagnostic services) match the input domain and service type. The description also specifically mentions TMJ X-ray, which is a strong match to the input.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>060T</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TomograficX Ray</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>579010010</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Radiography skull 1-3 vws</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>57901-00-10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>LLM response parsing failed; using vector similarity</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Service Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Service Description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>GTIN Code</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>GTIN Ingredients</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>GTIN Strength</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Confidence</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>989T</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dolo 650</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>18901175034168</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>CELECOXIB</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>200 MG</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>LLM response parsing failed; using vector similarity</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -453,17 +1307,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SBS Code</t>
+          <t>GMDN Code</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Short Description</t>
+          <t>GMDN Name</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SBS Code Hyphenated</t>
+          <t>GMDN Definition</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -480,64 +1334,64 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>290T</t>
+          <t>403T</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alveloplasty (1 Jaw)</t>
+          <t>Amalgam Or Resin ( 2OR Surface)</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>390090000</t>
+          <t>35791</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Tap for subdural haemorrhage</t>
+          <t>Dental amalgam capsule</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>39009-00-00</t>
+          <t>A small container in which silver (Ag) alloy is intended to be mixed with mercury (Hg) to form dental amalgam. This is a reusable device.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>LLM response parsing failed; using vector similarity</t>
+          <t>Passes checks 1-2 (dental procedure), but scope mismatch on 'amalgam or resin' (candidate is just for amalgam). Candidate's INCLUDES field does not mention resin, so this is a partial match.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>213T</t>
+          <t>340T</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Partial Bony Impaction / Mesioangle</t>
+          <t>Apexification</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>390090000</t>
+          <t>45069</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Tap for subdural haemorrhage</t>
+          <t>Phacoemulsification system handpiece tip, reprocessed</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>39009-00-00</t>
+          <t>A device that is attached to a dedicated handpiece for insertion into the eye to deliver energy (e.g., ultrasonic, piezoelectric), provided from a system generator, to perform phacoemulsification (a procedure for the liquefying and removal of the opaque lens nucleus in cataract surgery). It may facilitate, via the handpiece, the irrigation/suction needed for the removal of debris. This is a single-use device that has previously been used on a patient and has been subjected to additional processing and manufacturing for an additional single-use patient application.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -554,54 +1408,66 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>020T</t>
+          <t>578T</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Panoramic X Ray (OPG)</t>
+          <t>Resin Veneer (Lab)</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>409030000</t>
+          <t>38645</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Neuroendoscopy</t>
+          <t>Dental veneer, custom-made</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>40903-00-00</t>
+          <t>A custom-made facial restoration of ceramic or polymer-based material (resin) used in aesthetic dentistry to correct the facial surface of a tooth. This is a single-use device.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>The input describes a panoramic X-ray, which is a dental/maxillofacial imaging procedure. None of the candidates describe a dental or maxillofacial imaging service. The closest match is Candidate 6 (Neuroendoscopy), but this is a neurosurgical procedure and does not match the input.</t>
+          <t>Passes all checks. The input 'Resin Veneer (Lab)' matches the GMDN code 38645 for 'Dental veneer, custom-made', which is a custom-made dental restoration using resin material. The specialty, category, and clinical context all align.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>050T</t>
+          <t>020T</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TMJ X Ray</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
+          <t>Panoramic X Ray (OPG)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>43369</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Stationary panoramic dental x-ray system, digital</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>A diagnostic digital dental x-ray system designed for permanent fixture in one location with an extraoral x-ray sensor and source intended to generate and control x-ray beams to produce panoramic (wide field of view) x-ray images of the teeth, jaw and oral cavity structures. It consists of basic modular configurations that can be upgraded by the addition of hardware, software or other components. The data is either from analogue-to-digital conversion techniques imaging or by digital imaging.</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -609,7 +1475,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>The input 'TMJ X Ray' matches the SBS code 70328-00-00 for 'Radiography of temporomandibular joint' in the Diagnostic/Imaging domain. All checks passed, and the candidate description is a direct match for the input service.</t>
+          <t>Passes all checks - the input 'Panoramic X Ray (OPG)' matches the GMDN code 43369 for a stationary panoramic digital dental x-ray system. The specialty, category, and description all align with the input.</t>
         </is>
       </c>
     </row>

--- a/data/output/matched_sample input files.xlsx
+++ b/data/output/matched_sample input files.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,167 +490,155 @@
           <t>Space Maintainer (Removal)</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>980040011</t>
-        </is>
-      </c>
+      <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Removable space maintainer placement uni</t>
+          <t>Removal of fixed space maintainer</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>98004-00-11</t>
+          <t>98003-02-10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Candidate 1 passes all checks - the Specialty is Dental Services, the Category is Miscellaneous dental services, and the Description matches the input of 'Space Maintainer (Removal)'. The clinical context also aligns, describing a unilateral removable appliance used to maintain a missing tooth space.</t>
+          <t>Candidate 2 matches the input service type (removal of space maintainer). The domain and service align, but the input doesn't specify if the space maintainer is fixed or removable, leading to medium confidence.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>760T</t>
+          <t>403T</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bone Augmentation Memberane</t>
+          <t>Amalgam Or Resin ( 2OR Surface)</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>458410000</t>
+          <t>975210100</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Alv ridge aug by bone grft / allogrft</t>
+          <t>Adhesive restor tooth 1 surf direct</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>45841-00-00</t>
+          <t>97521-01-00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Candidate 17 [SBS] Code: 45841-00-00 passes all checks. The specialty (Procedures on Musculoskeletal System) and category (Repair procedures on maxilla, mandible or temporomandibular joint) match the input. The description of alveolar ridge augmentation using a bone graft or allograft is clinically relevant.</t>
+          <t>Domain and service type match (dental restoration). However, the input specifies 2 or 3 surfaces while the code is for 1 surface. The material (amalgam or resin) aligns partially with the code's description. No exact match found for 2-3 surfaces.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>310T</t>
+          <t>760T</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RE-RCT</t>
+          <t>Bone Augmentation Memberane</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>974370000</t>
+          <t>458410000</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Surg Rx &amp; rep ext root resorp per tooth</t>
+          <t>Alv ridge aug by bone grft / allogrft</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>97437-00-00</t>
+          <t>45841-00-00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Candidate 2 passes all checks - the Specialty is Dental Services, the Category is Periradicular Surgery which matches the input domain of Surgical, and the Description of 'Surg Rx &amp; rep ext root resorp per tooth' aligns with the input of endodontic reaming/enlargement. No major parameter mismatches were found.</t>
+          <t>Candidate 20 passes domain check (musculoskeletal system) and is closest in service type (bone augmentation). However, it specifies bone graft/allograft, not membrane. No exact match for membrane placement found.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>310T</t>
+          <t>340T</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RE-RCT</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>974370000</t>
-        </is>
-      </c>
+          <t>Apexification</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr"/>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Surg Rx &amp; rep ext root resorp per tooth</t>
+          <t>Apexification/recalcification treatment first visit</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>97437-00-00</t>
+          <t>97414-03-00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Candidate 2 passes all checks - the Specialty is Dental Services, the Category is Periradicular Surgery which matches the input domain of Surgical, and the Description of 'Surgical treatment and repair of external root resorption' aligns with the input of 'Endodontic reaming/enlargement'. No major parameter mismatches were found.</t>
+          <t>The input matches the clinical domain and specific service of Candidate 1. However, the input doesn't specify if it's the first visit, which is a minor ambiguity. Candidate 2 (update visit) and Candidate 3 (apexogenesis) are less specific matches.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>203T</t>
+          <t>521T</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Surgical Removal of Root Fragment</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>974310000</t>
-        </is>
-      </c>
+          <t>Tooth Colored 1 Surface</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr"/>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Periapical curettage per root</t>
+          <t>Tooth-Colored Composite Restoration, One Surface</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>97431-00-00</t>
+          <t>97521-01-00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -660,71 +648,63 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Candidate 1 passes all checks - the Specialty (Dental Services) and Category (Periradicular Surgery) match the input, the service description aligns with 'Surgical Removal of Root Fragment', and there are no mismatches in parameters or qualifiers. The Includes field also indicates this code covers the removal of pathological tissue from the root, which is consistent with the input.</t>
+          <t>The input matches perfectly with Candidate 2 in domain (dental), service type (tooth-colored restoration), and number of surfaces (one). The candidate's description is an exact match for the input, passing all checks without any conflicts.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>313T</t>
+          <t>522T</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R.C.T. (Birooted)</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>974320000</t>
-        </is>
-      </c>
+          <t>Tooth Colored 2 Surface</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr"/>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Apicectomy per root</t>
+          <t>Tooth-coloured restoration of additional surface</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>97432-00-00</t>
+          <t>97521-02-00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Candidate 7 passes all checks - the Specialty (Dental Services) and Category (Periradicular Surgery) match the input, the service description aligns with 'Periradicular surgery', and there are no mismatches in parameters or qualifiers. The Excludes field also does not conflict with the input.</t>
+          <t>Candidate 1 matches the clinical domain and service type. The code specifically addresses an additional surface, implying a multi-surface restoration. However, it doesn't explicitly state '2 surfaces', leading to medium confidence.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>315T</t>
+          <t>575T</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R.C.T. (Multirooted)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>974330000</t>
-        </is>
-      </c>
+          <t>Porcelaine Laminate</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr"/>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Exploratory periradicular surgery</t>
+          <t>Porcelain Laminate Veneer, Indirect Attachment</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>97433-00-00</t>
+          <t>97583-02-10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -734,34 +714,30 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Candidate 1 passes all checks - the Specialty is Dental Services, the Category is Periradicular Surgery, and the Description matches the input of a multirooted root canal procedure. There are no conflicting parameters or qualifiers specified.</t>
+          <t>The input matches Candidate 1 perfectly in both domain (dental) and specific service (porcelain laminate). The candidate's description 'Porcelain Laminate Veneer, Indirect Attachment' is a direct clinical match to the input 'Porcelaine Laminate'. All checks pass with no contradictions.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>309T</t>
+          <t>020T</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RCT Four Canals</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>974200100</t>
-        </is>
-      </c>
+          <t>Panoramic X Ray (OPG)</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr"/>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Root canal treatment anterior</t>
+          <t>Panoramic X-ray</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>97420-01-00</t>
+          <t>57960-00-00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -771,414 +747,40 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Passes all checks. The input describes a root canal treatment, which matches the 'Pulp treatment' category and 'Root canal treatment anterior' service in the SBS code system. The description also aligns with the input of 'Four Canals'.</t>
+          <t>Candidate 1 is an exact match for the input in both domain and specific service. The SBS code directly corresponds to 'Panoramic X-ray', which is synonymous with OPG (Orthopantomogram). All checks pass with no contradictions.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>311T</t>
+          <t>060T</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R.C.T. (Monorooted)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>974320000</t>
-        </is>
-      </c>
+          <t>TomograficX Ray</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr"/>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Apicectomy per root</t>
+          <t>Imaging Tomography Reconstruction</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>97432-00-00</t>
+          <t>60100-00-00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Passes all checks - the input describes a root canal procedure, which matches the 'Periradicular surgery' category and 'Apicectomy per root' service described by the candidate. The clinical context also aligns.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>521T</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Tooth Colored 1 Surface</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>975210100</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>Adhesive restor tooth 1 surf direct</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>97521-01-00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Candidate 2 passes all checks - the specialty, category, and clinical context match the input of a direct, tooth-colored, one-surface dental restoration.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>522T</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Tooth Colored 2 Surface</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>975210200</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>Adhesive restoration additional surface direct</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>97521-02-00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Passes all checks. Specialty (Dental Services) and category (Tooth-coloured restoration) match. Numerical parameter (2 surfaces) aligns. Qualifiers (tooth-colored, direct) are compatible.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>523T</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Tooth Colored 3 Surface</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>975210200</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>Adhesive restoration additional surface direct</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>97521-02-00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Passes all checks. Specialty and category match. The input describes a tooth-colored restoration involving 3 surfaces, which matches the 'additional surface direct' description of Candidate 1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>525T</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Tooth Colored Build Up With Post</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>975210100</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>Adhesive restor tooth 1 surf direct</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>97521-01-00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Candidate 4 passes all checks - the input service of 'Tooth Colored Build Up With Post' matches the SBS category of 'Tooth-coloured restoration' and the specific service of 'Adhesive restoration (e.g. compomer, composite, glass ionomer, polymer glass, resin composite), one surface, direct'. The input does not specify any parameters that would conflict with this code.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>290T</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Alveloplasty (1 Jaw)</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>417860000</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>Uvulopalatopharyngoplasty</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>41786-00-00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>LOW</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>LLM response parsing failed; using vector similarity</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>575T</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Porcelaine Laminate</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>975830210</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>Attachment veneer to tooth porcelain laminate indirect</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>97583-02-10</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Passes all checks - the input 'Porcelain Laminate' matches the SBS code 97583-02-10 for 'Attachment of veneer to tooth surface, porcelain laminate, indirect', which is in the Dental Services specialty and the 'Other restorative dental service' category. There are no mismatches in parameters or qualifiers.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>566T</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>PFM Crown (Non-Precious)</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>976151000</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>Porcelain fused to base metal crown</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>97615-10-00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Candidate 1 passes all checks - the specialty, category, and clinical context all match the input of a porcelain fused to base metal crown. There are no mismatches in parameters or qualifiers.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>567T</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>PFM Crown &gt; 1 Unit (Non-Precious)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>976151000</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>Porcelain fused to base metal crown</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>97615-10-00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Candidate 1 passes all checks - the specialty, category, and clinical context all match the input. The description of a porcelain fused to base metal crown is a direct match for the 'PFM Crown &gt; 1 Unit (Non-Precious)' input.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>050T</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>TMJ X Ray</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>970830040</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>CBVT analysis and/or interpret TMJ only</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>97083-00-40</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Candidate 1 passes all checks - the Specialty (DENTAL SERVICES) and Category (Other dental diagnostic services) match the input domain and service type. The description also specifically mentions TMJ X-ray, which is a strong match to the input.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>060T</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TomograficX Ray</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>579010010</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Radiography skull 1-3 vws</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>57901-00-10</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>LOW</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>LLM response parsing failed; using vector similarity</t>
+          <t>The input matches the domain of diagnostic imaging and describes a tomographic X-ray, which aligns with the concept of imaging tomography reconstruction. However, the input lacks specificity on body region or contrast use, making this a general match with low confidence.</t>
         </is>
       </c>
     </row>
@@ -1241,27 +843,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>989T</t>
+          <t>311T</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dolo 650</t>
+          <t>R.C.T. (Monorooted)</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>18901175034168</t>
+          <t>6285084000038</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>CELECOXIB</t>
+          <t>ARTICAINE HCL|ADRENALINE (EPINEPHRINE)</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>200 MG</t>
+          <t>40 MG/ 1 ML|0.005 MG/ 1 ML</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1271,7 +873,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>LLM response parsing failed; using vector similarity</t>
+          <t>The input describes a dental procedure (RCT), while the closest match is a dental anesthetic. This is not a direct match for the procedure, but it's a related product commonly used in dental treatments. All other candidates are unrelated.</t>
         </is>
       </c>
     </row>
@@ -1286,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1334,27 +936,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>403T</t>
+          <t>566T</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amalgam Or Resin ( 2OR Surface)</t>
+          <t>PFM Crown (Non-Precious)</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>35791</t>
+          <t>38596</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Dental amalgam capsule</t>
+          <t>Dental crown, metal/polymer</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>A small container in which silver (Ag) alloy is intended to be mixed with mercury (Hg) to form dental amalgam. This is a reusable device.</t>
+          <t>A device made of metal, veneered with a polymer-based, tooth-coloured material, and created for a specific patient, that functions as an artificial covering to replace the major part, or the whole part, of the clinical crown of a tooth.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1364,118 +966,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Passes checks 1-2 (dental procedure), but scope mismatch on 'amalgam or resin' (candidate is just for amalgam). Candidate's INCLUDES field does not mention resin, so this is a partial match.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>340T</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Apexification</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>45069</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Phacoemulsification system handpiece tip, reprocessed</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>A device that is attached to a dedicated handpiece for insertion into the eye to deliver energy (e.g., ultrasonic, piezoelectric), provided from a system generator, to perform phacoemulsification (a procedure for the liquefying and removal of the opaque lens nucleus in cataract surgery). It may facilitate, via the handpiece, the irrigation/suction needed for the removal of debris. This is a single-use device that has previously been used on a patient and has been subjected to additional processing and manufacturing for an additional single-use patient application.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>LOW</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>LLM response parsing failed; using vector similarity</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>578T</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Resin Veneer (Lab)</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>38645</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Dental veneer, custom-made</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>A custom-made facial restoration of ceramic or polymer-based material (resin) used in aesthetic dentistry to correct the facial surface of a tooth. This is a single-use device.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Passes all checks. The input 'Resin Veneer (Lab)' matches the GMDN code 38645 for 'Dental veneer, custom-made', which is a custom-made dental restoration using resin material. The specialty, category, and clinical context all align.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>020T</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Panoramic X Ray (OPG)</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>43369</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>Stationary panoramic dental x-ray system, digital</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>A diagnostic digital dental x-ray system designed for permanent fixture in one location with an extraoral x-ray sensor and source intended to generate and control x-ray beams to produce panoramic (wide field of view) x-ray images of the teeth, jaw and oral cavity structures. It consists of basic modular configurations that can be upgraded by the addition of hardware, software or other components. The data is either from analogue-to-digital conversion techniques imaging or by digital imaging.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Passes all checks - the input 'Panoramic X Ray (OPG)' matches the GMDN code 43369 for a stationary panoramic digital dental x-ray system. The specialty, category, and description all align with the input.</t>
+          <t>The candidate matches the clinical domain (dental) and service type (crown). The material description (metal with tooth-colored veneer) aligns with PFM, though 'polymer' is used instead of 'porcelain'. Non-precious metal is not explicitly specified, creating minor ambiguity.</t>
         </is>
       </c>
     </row>
